--- a/mis_excel_project.xlsx
+++ b/mis_excel_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Serafymov Oleksii\mis_excel_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F498052-4207-431C-83C6-82AE41FFD8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B801235-A968-4B9C-B17F-496D22517C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Quarte</t>
   </si>
@@ -137,16 +137,10 @@
     <t>Profits are the key to financial strength, for without profits all companies will eventually fail</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Cash Flow= 14,724,000         Net Income=2,703,000</t>
   </si>
   <si>
     <t>Cash Flow= 5,035,000         Net Income=1,917,000</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Assets= 265,991,000         Liabilities=222,385,000</t>
@@ -781,6 +775,9 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,14 +880,89 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1522,7 +1594,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-9854-4D5D-89CA-953284BD3A56}"/>
                   </c:ext>
@@ -4836,8 +4908,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.108875412608612E-2"/>
-                  <c:y val="0.15680247862667474"/>
+                  <c:x val="5.6673022709768116E-2"/>
+                  <c:y val="3.8284281131525225E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -5329,7 +5401,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7DE2-4ECD-8253-7CD042AD57C5}"/>
                   </c:ext>
@@ -9180,8 +9252,8 @@
   </sheetPr>
   <dimension ref="C1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9196,13 +9268,13 @@
   <sheetData>
     <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="3:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="12" t="s">
@@ -9549,6 +9621,11 @@
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:G11 D14:G21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9560,7 +9637,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -9578,8 +9655,8 @@
   </sheetPr>
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9594,13 +9671,13 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
@@ -9931,6 +10008,11 @@
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2 C15:F22 C5:F12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9943,10 +10025,10 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22:D32"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9957,8 +10039,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
@@ -9994,10 +10076,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1">
@@ -10045,8 +10127,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="57"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="1">
         <v>44561</v>
       </c>
@@ -10092,8 +10174,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="1">
         <v>44196</v>
       </c>
@@ -10139,8 +10221,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="57"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="1">
         <v>43830</v>
       </c>
@@ -10186,8 +10268,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -10235,8 +10317,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="1">
         <v>45016</v>
       </c>
@@ -10282,8 +10364,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="1">
         <v>44926</v>
       </c>
@@ -10329,8 +10411,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="1">
         <v>44834</v>
       </c>
@@ -10376,10 +10458,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
@@ -10427,8 +10509,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="1">
         <v>44561</v>
       </c>
@@ -10474,8 +10556,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="1">
         <v>44196</v>
       </c>
@@ -10521,8 +10603,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="1">
         <v>43830</v>
       </c>
@@ -10568,8 +10650,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -10617,8 +10699,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="1">
         <v>45016</v>
       </c>
@@ -10664,8 +10746,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="1">
         <v>44926</v>
       </c>
@@ -10711,8 +10793,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1">
         <v>44834</v>
       </c>
@@ -10758,19 +10840,19 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D22" s="82"/>
+      <c r="D22" s="48"/>
       <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D23" s="82"/>
+      <c r="D23" s="48"/>
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D24" s="82"/>
+      <c r="D24" s="48"/>
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D25" s="82"/>
+      <c r="D25" s="48"/>
       <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -10783,21 +10865,21 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D29" s="82"/>
+      <c r="D29" s="48"/>
       <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D30" s="82"/>
+      <c r="D30" s="48"/>
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D31" s="82"/>
+      <c r="D31" s="48"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D32" s="82"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D108" s="25">
@@ -10894,6 +10976,11 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
   </mergeCells>
+  <conditionalFormatting sqref="D2:M17">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10906,9 +10993,9 @@
   </sheetPr>
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL4" sqref="BL4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -10918,61 +11005,63 @@
     <col min="3" max="3" width="28.08984375" style="20" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" style="20" customWidth="1"/>
     <col min="5" max="5" width="28.08984375" style="20" customWidth="1"/>
-    <col min="6" max="37" width="8.7265625" style="62"/>
+    <col min="6" max="37" width="8.7265625" style="63"/>
     <col min="38" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
-      <c r="B2" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="70"/>
+      <c r="B2" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="39"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="40"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>30</v>
+      <c r="B5" s="23" t="str">
+        <f>IF('Pivot Table'!D6&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C5" s="31">
         <f>'Pivot Table'!D6</f>
         <v>2703000</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>30</v>
+      <c r="D5" s="32" t="str">
+        <f>IF('Pivot Table'!D14&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="E5" s="33">
         <f>'Pivot Table'!D14</f>
@@ -10983,15 +11072,17 @@
       <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>30</v>
+      <c r="B6" s="23" t="str">
+        <f>IF('Pivot Table'!I6&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C6" s="31">
         <f>'Pivot Table'!I6</f>
         <v>14724000</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>30</v>
+      <c r="D6" s="32" t="str">
+        <f>IF('Pivot Table'!I14&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="E6" s="33">
         <f>'Pivot Table'!I14</f>
@@ -11002,15 +11093,17 @@
       <c r="A7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>30</v>
+      <c r="B7" s="23" t="str">
+        <f>IF('Pivot Table'!M6&gt;1%,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C7" s="34">
         <f>'Pivot Table'!M6</f>
         <v>2.9837401066331093E-2</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>33</v>
+      <c r="D7" s="35" t="str">
+        <f>IF('Pivot Table'!M14&gt;1%,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
       <c r="E7" s="36">
         <f>'Pivot Table'!M14</f>
@@ -11021,67 +11114,73 @@
       <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="23" t="str">
+        <f>IF('Pivot Table'!I2&gt;'Pivot Table'!D2,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="32" t="str">
+        <f>IF('Pivot Table'!I14&gt;'Pivot Table'!D14,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="41"/>
-      <c r="B9" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
-      <c r="B10" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="37" x14ac:dyDescent="0.45">
       <c r="A11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>30</v>
+      <c r="B11" s="23" t="str">
+        <f>IF('Pivot Table'!F6&gt;'Pivot Table'!G6,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="32" t="str">
+        <f>IF('Pivot Table'!F14&gt;'Pivot Table'!G14,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="23" t="str">
+        <f>IF('Pivot Table'!K6&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C12" s="31">
         <f>'Pivot Table'!K6</f>
         <v>52182000</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>30</v>
+      <c r="D12" s="32" t="str">
+        <f>IF('Pivot Table'!K14&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="E12" s="33">
         <f>'Pivot Table'!K14</f>
@@ -11090,72 +11189,78 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="41"/>
-      <c r="B13" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
-      <c r="B14" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>IF('Pivot Table'!E6&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="C15" s="31">
+        <f>'Pivot Table'!E6</f>
         <v>4533000</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>30</v>
+      <c r="D15" s="32" t="str">
+        <f>IF('Pivot Table'!E14&gt;0,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
       <c r="E15" s="33">
+        <f>'Pivot Table'!E14</f>
         <v>7483000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="41"/>
-      <c r="B16" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
+      <c r="B16" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="40"/>
-      <c r="B17" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="B17" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="37" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>33</v>
+      <c r="B18" s="35" t="str">
+        <f>IF('Pivot Table'!G6&lt;'Pivot Table'!I6,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="35" t="str">
+        <f>IF('Pivot Table'!G14&lt;'Pivot Table'!I14,"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11243,1092 +11348,1092 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
     </row>
     <row r="34" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
     </row>
     <row r="35" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="62"/>
-      <c r="AJ35" s="62"/>
-      <c r="AK35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
     </row>
     <row r="36" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="62"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
     </row>
     <row r="37" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
-      <c r="AH37" s="62"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="63"/>
     </row>
     <row r="38" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="63"/>
     </row>
     <row r="39" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
     </row>
     <row r="40" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
     </row>
     <row r="41" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="62"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="62"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
     </row>
     <row r="42" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
     </row>
     <row r="43" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
     </row>
     <row r="44" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="63"/>
     </row>
     <row r="45" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
     </row>
     <row r="46" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
     </row>
     <row r="47" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="63"/>
+      <c r="AC47" s="63"/>
+      <c r="AD47" s="63"/>
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="63"/>
     </row>
     <row r="48" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="62"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="63"/>
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
     </row>
     <row r="49" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="62"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="63"/>
+      <c r="AC49" s="63"/>
+      <c r="AD49" s="63"/>
+      <c r="AE49" s="63"/>
+      <c r="AF49" s="63"/>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="63"/>
+      <c r="AI49" s="63"/>
+      <c r="AJ49" s="63"/>
+      <c r="AK49" s="63"/>
     </row>
     <row r="50" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="62"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
     </row>
     <row r="51" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="62"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="63"/>
+      <c r="AC51" s="63"/>
+      <c r="AD51" s="63"/>
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="63"/>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="63"/>
+      <c r="AI51" s="63"/>
+      <c r="AJ51" s="63"/>
+      <c r="AK51" s="63"/>
     </row>
     <row r="52" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="62"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="62"/>
-      <c r="AK52" s="62"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
+      <c r="AB52" s="63"/>
+      <c r="AC52" s="63"/>
+      <c r="AD52" s="63"/>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
+      <c r="AK52" s="63"/>
     </row>
     <row r="53" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="62"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="62"/>
-      <c r="AK53" s="62"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+      <c r="AB53" s="63"/>
+      <c r="AC53" s="63"/>
+      <c r="AD53" s="63"/>
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="63"/>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="63"/>
+      <c r="AI53" s="63"/>
+      <c r="AJ53" s="63"/>
+      <c r="AK53" s="63"/>
     </row>
     <row r="54" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="62"/>
-      <c r="AC54" s="62"/>
-      <c r="AD54" s="62"/>
-      <c r="AE54" s="62"/>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
-      <c r="AH54" s="62"/>
-      <c r="AI54" s="62"/>
-      <c r="AJ54" s="62"/>
-      <c r="AK54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+      <c r="AB54" s="63"/>
+      <c r="AC54" s="63"/>
+      <c r="AD54" s="63"/>
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="63"/>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="63"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="63"/>
+      <c r="AK54" s="63"/>
     </row>
     <row r="55" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="62"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62"/>
-      <c r="AB55" s="62"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="62"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="62"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
+      <c r="AK55" s="63"/>
     </row>
     <row r="56" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="62"/>
-      <c r="AI56" s="62"/>
-      <c r="AJ56" s="62"/>
-      <c r="AK56" s="62"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="63"/>
+      <c r="Y56" s="63"/>
+      <c r="Z56" s="63"/>
+      <c r="AA56" s="63"/>
+      <c r="AB56" s="63"/>
+      <c r="AC56" s="63"/>
+      <c r="AD56" s="63"/>
+      <c r="AE56" s="63"/>
+      <c r="AF56" s="63"/>
+      <c r="AG56" s="63"/>
+      <c r="AH56" s="63"/>
+      <c r="AI56" s="63"/>
+      <c r="AJ56" s="63"/>
+      <c r="AK56" s="63"/>
     </row>
     <row r="57" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
-      <c r="AD57" s="62"/>
-      <c r="AE57" s="62"/>
-      <c r="AF57" s="62"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="62"/>
-      <c r="AI57" s="62"/>
-      <c r="AJ57" s="62"/>
-      <c r="AK57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+      <c r="AB57" s="63"/>
+      <c r="AC57" s="63"/>
+      <c r="AD57" s="63"/>
+      <c r="AE57" s="63"/>
+      <c r="AF57" s="63"/>
+      <c r="AG57" s="63"/>
+      <c r="AH57" s="63"/>
+      <c r="AI57" s="63"/>
+      <c r="AJ57" s="63"/>
+      <c r="AK57" s="63"/>
     </row>
     <row r="58" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="62"/>
-      <c r="V58" s="62"/>
-      <c r="W58" s="62"/>
-      <c r="X58" s="62"/>
-      <c r="Y58" s="62"/>
-      <c r="Z58" s="62"/>
-      <c r="AA58" s="62"/>
-      <c r="AB58" s="62"/>
-      <c r="AC58" s="62"/>
-      <c r="AD58" s="62"/>
-      <c r="AE58" s="62"/>
-      <c r="AF58" s="62"/>
-      <c r="AG58" s="62"/>
-      <c r="AH58" s="62"/>
-      <c r="AI58" s="62"/>
-      <c r="AJ58" s="62"/>
-      <c r="AK58" s="62"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
+      <c r="X58" s="63"/>
+      <c r="Y58" s="63"/>
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="63"/>
+      <c r="AB58" s="63"/>
+      <c r="AC58" s="63"/>
+      <c r="AD58" s="63"/>
+      <c r="AE58" s="63"/>
+      <c r="AF58" s="63"/>
+      <c r="AG58" s="63"/>
+      <c r="AH58" s="63"/>
+      <c r="AI58" s="63"/>
+      <c r="AJ58" s="63"/>
+      <c r="AK58" s="63"/>
     </row>
     <row r="59" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
-      <c r="V59" s="62"/>
-      <c r="W59" s="62"/>
-      <c r="X59" s="62"/>
-      <c r="Y59" s="62"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="62"/>
-      <c r="AB59" s="62"/>
-      <c r="AC59" s="62"/>
-      <c r="AD59" s="62"/>
-      <c r="AE59" s="62"/>
-      <c r="AF59" s="62"/>
-      <c r="AG59" s="62"/>
-      <c r="AH59" s="62"/>
-      <c r="AI59" s="62"/>
-      <c r="AJ59" s="62"/>
-      <c r="AK59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="63"/>
+      <c r="AC59" s="63"/>
+      <c r="AD59" s="63"/>
+      <c r="AE59" s="63"/>
+      <c r="AF59" s="63"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="63"/>
     </row>
     <row r="60" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="62"/>
-      <c r="W60" s="62"/>
-      <c r="X60" s="62"/>
-      <c r="Y60" s="62"/>
-      <c r="Z60" s="62"/>
-      <c r="AA60" s="62"/>
-      <c r="AB60" s="62"/>
-      <c r="AC60" s="62"/>
-      <c r="AD60" s="62"/>
-      <c r="AE60" s="62"/>
-      <c r="AF60" s="62"/>
-      <c r="AG60" s="62"/>
-      <c r="AH60" s="62"/>
-      <c r="AI60" s="62"/>
-      <c r="AJ60" s="62"/>
-      <c r="AK60" s="62"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="63"/>
+      <c r="W60" s="63"/>
+      <c r="X60" s="63"/>
+      <c r="Y60" s="63"/>
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="63"/>
+      <c r="AB60" s="63"/>
+      <c r="AC60" s="63"/>
+      <c r="AD60" s="63"/>
+      <c r="AE60" s="63"/>
+      <c r="AF60" s="63"/>
+      <c r="AG60" s="63"/>
+      <c r="AH60" s="63"/>
+      <c r="AI60" s="63"/>
+      <c r="AJ60" s="63"/>
+      <c r="AK60" s="63"/>
     </row>
     <row r="61" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
-      <c r="W61" s="62"/>
-      <c r="X61" s="62"/>
-      <c r="Y61" s="62"/>
-      <c r="Z61" s="62"/>
-      <c r="AA61" s="62"/>
-      <c r="AB61" s="62"/>
-      <c r="AC61" s="62"/>
-      <c r="AD61" s="62"/>
-      <c r="AE61" s="62"/>
-      <c r="AF61" s="62"/>
-      <c r="AG61" s="62"/>
-      <c r="AH61" s="62"/>
-      <c r="AI61" s="62"/>
-      <c r="AJ61" s="62"/>
-      <c r="AK61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="63"/>
+      <c r="AC61" s="63"/>
+      <c r="AD61" s="63"/>
+      <c r="AE61" s="63"/>
+      <c r="AF61" s="63"/>
+      <c r="AG61" s="63"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="63"/>
+      <c r="AK61" s="63"/>
     </row>
     <row r="62" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="62"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="62"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="62"/>
-      <c r="AF62" s="62"/>
-      <c r="AG62" s="62"/>
-      <c r="AH62" s="62"/>
-      <c r="AI62" s="62"/>
-      <c r="AJ62" s="62"/>
-      <c r="AK62" s="62"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
+      <c r="AD62" s="63"/>
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="63"/>
+      <c r="AG62" s="63"/>
+      <c r="AH62" s="63"/>
+      <c r="AI62" s="63"/>
+      <c r="AJ62" s="63"/>
+      <c r="AK62" s="63"/>
     </row>
     <row r="63" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
-      <c r="AI63" s="62"/>
-      <c r="AJ63" s="62"/>
-      <c r="AK63" s="62"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="63"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="63"/>
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="63"/>
+      <c r="AB63" s="63"/>
+      <c r="AC63" s="63"/>
+      <c r="AD63" s="63"/>
+      <c r="AE63" s="63"/>
+      <c r="AF63" s="63"/>
+      <c r="AG63" s="63"/>
+      <c r="AH63" s="63"/>
+      <c r="AI63" s="63"/>
+      <c r="AJ63" s="63"/>
+      <c r="AK63" s="63"/>
     </row>
     <row r="64" spans="6:37" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="62"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="62"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="62"/>
-      <c r="AI64" s="62"/>
-      <c r="AJ64" s="62"/>
-      <c r="AK64" s="62"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="63"/>
+      <c r="W64" s="63"/>
+      <c r="X64" s="63"/>
+      <c r="Y64" s="63"/>
+      <c r="Z64" s="63"/>
+      <c r="AA64" s="63"/>
+      <c r="AB64" s="63"/>
+      <c r="AC64" s="63"/>
+      <c r="AD64" s="63"/>
+      <c r="AE64" s="63"/>
+      <c r="AF64" s="63"/>
+      <c r="AG64" s="63"/>
+      <c r="AH64" s="63"/>
+      <c r="AI64" s="63"/>
+      <c r="AJ64" s="63"/>
+      <c r="AK64" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12345,6 +12450,14 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5:B8 D5:D8 B11:B12 B15 D11:D12 D15 B18 D18">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",B5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12357,7 +12470,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12392,7 +12505,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
